--- a/Table.xlsx
+++ b/Table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EE4309-5AD1-446D-A54A-E8D9B990D5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056A8FFD-6FFF-4E62-86E6-A7B66FE501EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,18 +37,12 @@
     <t>Julia Zhuravleva</t>
   </si>
   <si>
-    <t>Sofia Maximova</t>
-  </si>
-  <si>
     <t>Marina Dyachkova</t>
   </si>
   <si>
     <t>Stanislav Kim</t>
   </si>
   <si>
-    <t>Sofia Avdeeva</t>
-  </si>
-  <si>
     <t>Andrey Terleev</t>
   </si>
   <si>
@@ -80,6 +74,12 @@
   </si>
   <si>
     <t>Roles</t>
+  </si>
+  <si>
+    <t>Sofya Maximova</t>
+  </si>
+  <si>
+    <t>Sofya Avdeeva</t>
   </si>
 </sst>
 </file>
@@ -103,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -112,19 +112,101 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -132,36 +214,6 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -170,63 +222,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -238,25 +255,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,109 +571,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="10"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="7"/>
